--- a/medicine/Enfance/Pataugeoire/Pataugeoire.xlsx
+++ b/medicine/Enfance/Pataugeoire/Pataugeoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pataugeoire est un bassin artificiel très peu profond, étanche, rempli d'eau et qui est utilisée le plus souvent par les tout jeunes enfants. Parfois gonflable, elle ne peut contenir que suffisamment d'eau pour barboter et non pour nager (à la différence d'une piscine classique).
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bassin[1] accueille les jeunes enfants (de 6 mois à 6 ans environ)[2]. Dans les espaces publics, la législation française impose une profondeur allant de 20 cm à 40 cm. D'après l'article 18 de l'arrêté du 14 septembre 2004 portant prescription de mesures techniques et de sécurité dans les piscines privatives à usage collectif[3], une pataugeoire est « un bassin destiné aux enfants dont la profondeur d'eau n'excède pas 0,40 mètre. Cette profondeur d'eau maximale est ramenée à 0,20 mètre à la périphérie du bassin. La pente du radier des pataugeoires ne dépasse pas 5 %. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bassin accueille les jeunes enfants (de 6 mois à 6 ans environ). Dans les espaces publics, la législation française impose une profondeur allant de 20 cm à 40 cm. D'après l'article 18 de l'arrêté du 14 septembre 2004 portant prescription de mesures techniques et de sécurité dans les piscines privatives à usage collectif, une pataugeoire est « un bassin destiné aux enfants dont la profondeur d'eau n'excède pas 0,40 mètre. Cette profondeur d'eau maximale est ramenée à 0,20 mètre à la périphérie du bassin. La pente du radier des pataugeoires ne dépasse pas 5 %. »
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Surveillance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Pataugeoire, sur Wikimedia Commonspataugeoire, sur le Wiktionnaire
-La législation française diffère selon les types de pataugeoires[4]. Dans l'enceinte d'une piscine d'accès payant (milieu naturel, en dur ou gonflable, fixe ou mobile[1]), elle impose à l'établissement une obligation de surveillance par du personnel diplômé portant le titre de maître-nageur sauveteur, éventuellement assisté de personnes titulaires du brevet national de sécurité et de sauvetage aquatique.
-Sur une aire collective de jeux, la surveillance des pataugeoires par du personnel diplômé est facultative. Seuls sont recommandés des affichages et avertissements appelant l'attention des adultes sur la nécessité de surveiller les enfants qu'ils accompagnent (décret n° 96-699 du 18 décembre 1996, fixant les prescriptions de sécurité relatives aux aires collectives de jeux)[5].
+La législation française diffère selon les types de pataugeoires. Dans l'enceinte d'une piscine d'accès payant (milieu naturel, en dur ou gonflable, fixe ou mobile), elle impose à l'établissement une obligation de surveillance par du personnel diplômé portant le titre de maître-nageur sauveteur, éventuellement assisté de personnes titulaires du brevet national de sécurité et de sauvetage aquatique.
+Sur une aire collective de jeux, la surveillance des pataugeoires par du personnel diplômé est facultative. Seuls sont recommandés des affichages et avertissements appelant l'attention des adultes sur la nécessité de surveiller les enfants qu'ils accompagnent (décret n° 96-699 du 18 décembre 1996, fixant les prescriptions de sécurité relatives aux aires collectives de jeux).
 </t>
         </is>
       </c>
